--- a/assets/CHECKLIST.xlsx
+++ b/assets/CHECKLIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mconz\OneDrive\Documentos\CODO_a_CODO\GIT\canvama\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27E94C07-3ED1-4B6C-ADC5-43C0918FBBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D4604F-C328-40BF-90D0-C54196DBE872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="79">
   <si>
     <t>FOOTER</t>
   </si>
@@ -206,24 +206,9 @@
     <t>Crear un formulario</t>
   </si>
   <si>
-    <t>Utilizar CSS</t>
-  </si>
-  <si>
-    <t>Aplicar formatos a los párrafos, títulos y demas elementos de las páginas HTML.</t>
-  </si>
-  <si>
-    <t>Deben incluirse algunos de los atributos type de la etiqueta input.</t>
-  </si>
-  <si>
     <t>En funcion de la distribucion elegida utilizar GRID p maquetar el contenido principal MAIN de las paginas del sitio.</t>
   </si>
   <si>
-    <t>Diseñar 2 paginas.</t>
-  </si>
-  <si>
-    <t>Deberá incluir página de inicio y página interna para el sitio web.</t>
-  </si>
-  <si>
     <t>Seleccionar paleta de colores, estilos y banco de imágenes.</t>
   </si>
   <si>
@@ -240,6 +225,92 @@
   </si>
   <si>
     <t>En función de la distribución LAYOUT, utilizar Flexbox para maquetear el encabezado.</t>
+  </si>
+  <si>
+    <t>Diseñar al menos 4 páginas.</t>
+  </si>
+  <si>
+    <t>Poseer al menos 4 páginas html, siendo su temática libre. En caso de ser un Sitio
+Web estilo One Page, el mismo deberá tener al menos 5 secciones.</t>
+  </si>
+  <si>
+    <t>Utilizar etiquetas semánticas para estructurar el sitio.</t>
+  </si>
+  <si>
+    <t>Uso etiquetas</t>
+  </si>
+  <si>
+    <t>Req 09</t>
+  </si>
+  <si>
+    <t>Req 10</t>
+  </si>
+  <si>
+    <t>Req 11</t>
+  </si>
+  <si>
+    <t>Req 12</t>
+  </si>
+  <si>
+    <t>Req 13</t>
+  </si>
+  <si>
+    <t>Req 14</t>
+  </si>
+  <si>
+    <t>Contener un formulario de contacto con validación realizada mediante Javascript.
+Opcional: el formulario podrá enviar un email utilizando algún servicio externo
+destinado para ello.</t>
+  </si>
+  <si>
+    <t>Font e Iconos</t>
+  </si>
+  <si>
+    <t>Utilizar al menos un Iframe, íconos de FontAwesome o Flaticon; y fuentes locales o
+bien de Google Fonts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tener al menos una página totalmente responsive con 3 puntos de corte para 3
+tamaños de dispositivos distintos</t>
+  </si>
+  <si>
+    <t>Boostrap</t>
+  </si>
+  <si>
+    <t>En caso de querer utilizar Bootstrap (no es obligatorio), sólo podrá hacerlo en la
+página del formulario del sitio web. No se aceptarán proyectos desarrollados
+íntegramente en algún Framework de CSS (Bootstrap, Materialize, Tailwind o
+similar).</t>
+  </si>
+  <si>
+    <t>Subida a Servidor-on-line</t>
+  </si>
+  <si>
+    <t>El desarrollo web deberá subirse a un servidor on-line para poder ser navegada por
+el Docente. Ejemplo: GitHub Pages, Netlify o similares.</t>
+  </si>
+  <si>
+    <t>Además de los aspectos técnicos mencionados anteriormente, el proyecto deberá
+contemplar aspectos de diseño los cuales también serán evaluados por el Docente.
+Para eso se recomienda que vean el material disponible en el Aula Virtual.
+Seminario de Diseño Web: https://youtu.be/fVkGt2tYIj0. Para más información, ver
+material incluído en el Aula Virtual “Diseño”. En relación al estilo de la web
+(look&amp;feel) se evaluará y considerará: maquetación del sitio web; alineación, orden
+y márgenes entre los elementos; tipografía seleccionada acorde a la temática del
+proyecto; fotografía de calidad y optimizada para web; paleta de colores
+seleccionada acorde a la temática; logo utilizado en el sitio web.</t>
+  </si>
+  <si>
+    <t>Aspectos Diseño Web</t>
+  </si>
+  <si>
+    <t>el TPO es grupal, deberán sincronizar el código del TPO en Github (o similar)
+enviando el link del repositorio al Docente al momento de entregar el proyecto. Este
+requisito es obligatorio. Para más información sobre GIT, ver material incluído en el
+Aula Virtual “GIT”.</t>
+  </si>
+  <si>
+    <t>GitHub para TPO</t>
   </si>
 </sst>
 </file>
@@ -323,21 +394,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -381,19 +451,19 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
@@ -405,6 +475,30 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
@@ -2096,6 +2190,522 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-AR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Check Box 1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1045" name="Check Box 21" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1045"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-AR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Check Box 1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1046" name="Check Box 22" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1046"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-AR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Check Box 1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1047" name="Check Box 23" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1047"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-AR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Check Box 1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1048" name="Check Box 24" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1048"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-AR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Check Box 1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1049" name="Check Box 25" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1049"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-AR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Check Box 1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1050" name="Check Box 26" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1050"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2460,360 +3070,416 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="112" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="52.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="131.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>53</v>
+      <c r="E15" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>51</v>
+      <c r="D17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="5" t="s">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="E21" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5" t="s">
+    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>57</v>
+      <c r="C22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5" t="s">
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>59</v>
+      <c r="C23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5" t="s">
+    <row r="24" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>61</v>
+      <c r="C24" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+    <row r="26" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="B27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E11" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -3268,6 +3934,138 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1045" r:id="rId24" name="Check Box 21">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>121920</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>518160</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1046" r:id="rId25" name="Check Box 22">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>121920</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>518160</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1047" r:id="rId26" name="Check Box 23">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>121920</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>518160</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1048" r:id="rId27" name="Check Box 24">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>121920</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>518160</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1049" r:id="rId28" name="Check Box 25">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>121920</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>518160</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1050" r:id="rId29" name="Check Box 26">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>121920</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>518160</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
